--- a/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestLogic/BienBanReview_LA18PM.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestLogic/BienBanReview_LA18PM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="1560" windowWidth="14805" windowHeight="8010" tabRatio="788" firstSheet="9" activeTab="15"/>
@@ -355,12 +355,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,9 +669,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,6 +704,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -878,14 +880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -893,7 +895,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="30" t="s">
         <v>72</v>
@@ -901,13 +903,13 @@
       <c r="C2" s="30"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>73</v>
       </c>
@@ -921,7 +923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>43018</v>
       </c>
@@ -935,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>43018</v>
       </c>
@@ -949,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>43018</v>
       </c>
@@ -963,7 +965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>43018</v>
       </c>
@@ -977,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>43018</v>
       </c>
@@ -991,7 +993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>43018</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>43018</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>43018</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>43018</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>43018</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>43018</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>43018</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>43018</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>43018</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>43019</v>
       </c>
@@ -1140,14 +1142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -1157,7 +1159,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1165,7 +1167,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1173,13 +1175,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -1189,7 +1191,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1197,7 +1199,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1205,7 +1207,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1213,7 +1215,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -2069,14 +2071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -2086,7 +2088,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2094,7 +2096,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2102,13 +2104,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -2118,7 +2120,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2126,7 +2128,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2134,7 +2136,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2142,7 +2144,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -2244,7 +2246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -2703,7 +2705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -2998,14 +3000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
@@ -3014,26 +3016,26 @@
     <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -3042,28 +3044,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="77.25" customHeight="1">
+    <row r="8" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" customHeight="1">
+    <row r="9" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="78.75" customHeight="1">
+    <row r="10" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" customHeight="1">
+    <row r="11" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="81.75" customHeight="1">
+    <row r="14" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="95.25" customHeight="1">
+    <row r="15" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="88.5" customHeight="1">
+    <row r="17" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.5" customHeight="1">
+    <row r="20" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="62.25" customHeight="1">
+    <row r="23" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -3386,7 +3388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="86.25" customHeight="1">
+    <row r="27" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="64.5" customHeight="1">
+    <row r="29" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -3437,7 +3439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="116.25" customHeight="1">
+    <row r="30" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -3471,7 +3473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="130.5" customHeight="1">
+    <row r="32" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="86.25" customHeight="1">
+    <row r="35" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="84.75" customHeight="1">
+    <row r="36" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="102.75" customHeight="1">
+    <row r="37" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72.75" customHeight="1">
+    <row r="38" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105.75" customHeight="1">
+    <row r="39" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="110.25" customHeight="1">
+    <row r="40" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="91.5" customHeight="1">
+    <row r="41" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="70.5" customHeight="1">
+    <row r="44" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="63.75" customHeight="1">
+    <row r="45" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45.75" customHeight="1">
+    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -3726,7 +3728,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.25" customHeight="1">
+    <row r="47" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="87.75" customHeight="1">
+    <row r="48" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="42" customHeight="1">
+    <row r="49" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="62.25" customHeight="1">
+    <row r="50" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="86.25" customHeight="1">
+    <row r="51" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="48.75" customHeight="1">
+    <row r="52" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" customHeight="1">
+    <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="98.25" customHeight="1">
+    <row r="54" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90.75" customHeight="1">
+    <row r="55" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="71.25" customHeight="1">
+    <row r="56" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -3919,14 +3921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -3936,7 +3938,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3944,7 +3946,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3952,13 +3954,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -3968,7 +3970,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3976,7 +3978,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3984,7 +3986,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3992,7 +3994,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -4128,7 +4130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1">
+    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.25" customHeight="1">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -4247,7 +4249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1">
+    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1">
+    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1">
+    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1">
+    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1">
+    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -4383,7 +4385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1">
+    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -4417,7 +4419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1">
+    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="54" customHeight="1">
+    <row r="34" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1">
+    <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -4485,7 +4487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -4502,7 +4504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1">
+    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -4519,7 +4521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1">
+    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1">
+    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="48.75" customHeight="1">
+    <row r="41" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1">
+    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -4604,7 +4606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="48.75" customHeight="1">
+    <row r="44" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" customHeight="1">
+    <row r="45" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="40.5" customHeight="1">
+    <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1">
+    <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="35.25" customHeight="1">
+    <row r="49" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34.5" customHeight="1">
+    <row r="50" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="42" customHeight="1">
+    <row r="53" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="65.25" customHeight="1">
+    <row r="55" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1">
+    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -4849,14 +4851,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -4866,7 +4868,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4874,7 +4876,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4882,13 +4884,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -4898,7 +4900,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4906,7 +4908,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4914,7 +4916,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4922,7 +4924,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -4956,7 +4958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -5330,7 +5332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -5364,7 +5366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -5636,7 +5638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -5738,7 +5740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -5778,14 +5780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -5794,26 +5796,26 @@
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -5822,28 +5824,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="49.5">
+    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +5862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33">
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>5</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -5962,7 +5964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33">
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="49.5">
+    <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5">
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>11</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33">
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>16</v>
       </c>
@@ -6132,7 +6134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>17</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33">
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -6200,7 +6202,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33">
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="82.5">
+    <row r="30" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>22</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>23</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="115.5">
+    <row r="32" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>24</v>
       </c>
@@ -6268,7 +6270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>25</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>26</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>27</v>
       </c>
@@ -6319,7 +6321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>28</v>
       </c>
@@ -6336,7 +6338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="49.5">
+    <row r="37" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>29</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="33">
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="49.5">
+    <row r="39" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>31</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>32</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>33</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>34</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>35</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="49.5">
+    <row r="44" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>36</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>37</v>
       </c>
@@ -6489,7 +6491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>38</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="33">
+    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>40</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -6557,7 +6559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>42</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>43</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>44</v>
       </c>
@@ -6608,7 +6610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33">
+    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>45</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>46</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>47</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="33">
+    <row r="56" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>48</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33">
+    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>49</v>
       </c>
@@ -6699,14 +6701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
@@ -6715,26 +6717,26 @@
     <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -6743,28 +6745,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="77.25" customHeight="1">
+    <row r="8" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" customHeight="1">
+    <row r="9" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="78.75" customHeight="1">
+    <row r="10" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" customHeight="1">
+    <row r="11" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -6866,7 +6868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="81.75" customHeight="1">
+    <row r="14" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="95.25" customHeight="1">
+    <row r="15" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -6917,7 +6919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="88.5" customHeight="1">
+    <row r="17" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.5" customHeight="1">
+    <row r="20" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -7019,7 +7021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="62.25" customHeight="1">
+    <row r="23" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -7036,7 +7038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="86.25" customHeight="1">
+    <row r="27" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -7104,7 +7106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="64.5" customHeight="1">
+    <row r="29" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -7138,7 +7140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="116.25" customHeight="1">
+    <row r="30" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -7172,7 +7174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="130.5" customHeight="1">
+    <row r="32" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -7223,7 +7225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="86.25" customHeight="1">
+    <row r="35" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="84.75" customHeight="1">
+    <row r="36" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="102.75" customHeight="1">
+    <row r="37" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72.75" customHeight="1">
+    <row r="38" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105.75" customHeight="1">
+    <row r="39" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="110.25" customHeight="1">
+    <row r="40" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="91.5" customHeight="1">
+    <row r="41" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="70.5" customHeight="1">
+    <row r="44" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="63.75" customHeight="1">
+    <row r="45" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45.75" customHeight="1">
+    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.25" customHeight="1">
+    <row r="47" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -7444,7 +7446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="87.75" customHeight="1">
+    <row r="48" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="42" customHeight="1">
+    <row r="49" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="62.25" customHeight="1">
+    <row r="50" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="86.25" customHeight="1">
+    <row r="51" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="48.75" customHeight="1">
+    <row r="52" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" customHeight="1">
+    <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="98.25" customHeight="1">
+    <row r="54" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90.75" customHeight="1">
+    <row r="55" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -7580,7 +7582,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="71.25" customHeight="1">
+    <row r="56" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="66">
+    <row r="58" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>50</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5">
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>51</v>
       </c>
@@ -7642,13 +7644,13 @@
         <v>96</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.5">
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>52</v>
       </c>
@@ -7659,13 +7661,13 @@
         <v>96</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.5">
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>53</v>
       </c>
@@ -7676,13 +7678,13 @@
         <v>96</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.5">
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>54</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>96</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>69</v>
@@ -7705,14 +7707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -7722,7 +7724,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7730,7 +7732,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7738,13 +7740,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -7754,7 +7756,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7762,7 +7764,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7770,7 +7772,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7778,7 +7780,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -7810,7 +7812,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -7825,7 +7827,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -7840,7 +7842,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -7855,7 +7857,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -7870,7 +7872,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -7885,7 +7887,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -7900,7 +7902,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -7915,7 +7917,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1">
+    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -7930,7 +7932,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="44.25" customHeight="1">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -7945,7 +7947,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -7960,7 +7962,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -7975,7 +7977,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -7990,7 +7992,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -8005,7 +8007,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1">
+    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -8020,7 +8022,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1">
+    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -8035,7 +8037,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1">
+    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -8050,7 +8052,7 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -8065,7 +8067,7 @@
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -8080,7 +8082,7 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1">
+    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -8095,7 +8097,7 @@
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1">
+    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -8110,7 +8112,7 @@
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -8125,7 +8127,7 @@
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1">
+    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -8140,7 +8142,7 @@
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -8155,7 +8157,7 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1">
+    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -8170,7 +8172,7 @@
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="54" customHeight="1">
+    <row r="34" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -8185,7 +8187,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -8200,7 +8202,7 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1">
+    <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -8215,7 +8217,7 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -8230,7 +8232,7 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1">
+    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -8245,7 +8247,7 @@
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1">
+    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -8260,7 +8262,7 @@
       </c>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1">
+    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -8275,7 +8277,7 @@
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="48.75" customHeight="1">
+    <row r="41" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -8290,7 +8292,7 @@
       </c>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -8305,7 +8307,7 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1">
+    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -8320,7 +8322,7 @@
       </c>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="48.75" customHeight="1">
+    <row r="44" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -8335,7 +8337,7 @@
       </c>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="48" customHeight="1">
+    <row r="45" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -8350,7 +8352,7 @@
       </c>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="40.5" customHeight="1">
+    <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -8365,7 +8367,7 @@
       </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1">
+    <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -8380,7 +8382,7 @@
       </c>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -8395,7 +8397,7 @@
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="35.25" customHeight="1">
+    <row r="49" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -8410,7 +8412,7 @@
       </c>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="34.5" customHeight="1">
+    <row r="50" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -8425,7 +8427,7 @@
       </c>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -8440,7 +8442,7 @@
       </c>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -8455,7 +8457,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="42" customHeight="1">
+    <row r="53" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -8470,7 +8472,7 @@
       </c>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -8485,7 +8487,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="65.25" customHeight="1">
+    <row r="55" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -8500,7 +8502,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -8515,7 +8517,7 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1">
+    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -8530,7 +8532,7 @@
       </c>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="82.5">
+    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>50</v>
       </c>
@@ -8545,7 +8547,7 @@
       </c>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="33">
+    <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>51</v>
       </c>
@@ -8560,7 +8562,7 @@
       </c>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="33">
+    <row r="60" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>52</v>
       </c>
@@ -8575,7 +8577,7 @@
       </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="33">
+    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>53</v>
       </c>
@@ -8590,7 +8592,7 @@
       </c>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="33">
+    <row r="62" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>54</v>
       </c>
@@ -8612,14 +8614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -8629,7 +8631,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8637,7 +8639,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8645,13 +8647,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1">
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -8661,7 +8663,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8669,7 +8671,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8677,7 +8679,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8685,7 +8687,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -8855,7 +8857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -8872,7 +8874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -8906,7 +8908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -8923,7 +8925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -9008,7 +9010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -9025,7 +9027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -9059,7 +9061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -9093,7 +9095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -9178,7 +9180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -9280,7 +9282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -9348,7 +9350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -9365,7 +9367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -9416,7 +9418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -9484,7 +9486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -9499,7 +9501,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -9539,14 +9541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -9556,7 +9558,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9564,7 +9566,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9572,13 +9574,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -9588,7 +9590,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9596,7 +9598,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9604,7 +9606,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -9612,7 +9614,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -9629,7 +9631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -9680,7 +9682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -9697,7 +9699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -9714,7 +9716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -9731,7 +9733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -9748,7 +9750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1">
+    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.25" customHeight="1">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -9867,7 +9869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1">
+    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1">
+    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1">
+    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -9935,7 +9937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1">
+    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -9969,7 +9971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1">
+    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -9986,7 +9988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1">
+    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -10020,7 +10022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -10037,7 +10039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1">
+    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -10054,7 +10056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="54" customHeight="1">
+    <row r="34" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1">
+    <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1">
+    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -10139,7 +10141,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1">
+    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -10156,7 +10158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1">
+    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -10173,7 +10175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="48.75" customHeight="1">
+    <row r="41" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -10190,7 +10192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -10207,7 +10209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1">
+    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -10224,7 +10226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="48.75" customHeight="1">
+    <row r="44" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" customHeight="1">
+    <row r="45" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -10258,7 +10260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="40.5" customHeight="1">
+    <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -10275,7 +10277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1">
+    <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -10292,7 +10294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="35.25" customHeight="1">
+    <row r="49" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -10326,7 +10328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34.5" customHeight="1">
+    <row r="50" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -10360,7 +10362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="42" customHeight="1">
+    <row r="53" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -10394,7 +10396,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -10411,7 +10413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="65.25" customHeight="1">
+    <row r="55" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -10428,7 +10430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -10445,7 +10447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1">
+    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -10469,14 +10471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -10486,7 +10488,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10494,7 +10496,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10502,13 +10504,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -10518,7 +10520,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -10526,7 +10528,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -10534,7 +10536,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -10542,7 +10544,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -10593,7 +10595,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -10610,7 +10612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -10627,7 +10629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -10746,7 +10748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -10780,7 +10782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -10814,7 +10816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -10831,7 +10833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -10882,7 +10884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -10899,7 +10901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -10916,7 +10918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -10933,7 +10935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -11018,7 +11020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -11069,7 +11071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -11086,7 +11088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -11103,7 +11105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -11120,7 +11122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -11154,7 +11156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -11188,7 +11190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -11205,7 +11207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -11222,7 +11224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -11239,7 +11241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -11290,7 +11292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -11307,7 +11309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -11398,14 +11400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -11415,7 +11417,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33">
+    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -11433,7 +11435,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11451,7 +11453,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -11469,7 +11471,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -11487,7 +11489,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -11505,7 +11507,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -11523,7 +11525,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="33">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -11541,7 +11543,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -11558,7 +11560,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -11575,7 +11577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -11592,7 +11594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -11626,7 +11628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -11643,7 +11645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -11660,7 +11662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -11677,7 +11679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -11694,7 +11696,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -11711,7 +11713,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -11728,7 +11730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -11779,7 +11781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -11796,7 +11798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="66">
+    <row r="23" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -11830,7 +11832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="82.5">
+    <row r="25" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -11864,7 +11866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33">
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -11898,7 +11900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33">
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -11915,7 +11917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="33">
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -11932,7 +11934,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33">
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -11966,7 +11968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33">
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33">
+    <row r="34" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -12000,7 +12002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5">
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -12017,7 +12019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5">
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -12051,7 +12053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5">
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -12119,7 +12121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -12136,7 +12138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -12170,7 +12172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="33">
+    <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -12187,7 +12189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="49.5">
+    <row r="47" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -12221,7 +12223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="49.5">
+    <row r="48" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -12238,7 +12240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -12272,7 +12274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -12287,7 +12289,7 @@
       </c>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -12302,7 +12304,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -12317,7 +12319,7 @@
       </c>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -12332,7 +12334,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -12347,7 +12349,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -12362,7 +12364,7 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -12383,14 +12385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
@@ -12399,26 +12401,26 @@
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -12427,28 +12429,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="33">
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -12465,7 +12467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -12482,7 +12484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -12499,7 +12501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -12516,7 +12518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -12533,7 +12535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>5</v>
       </c>
@@ -12550,7 +12552,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -12584,7 +12586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -12601,7 +12603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -12618,7 +12620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -12635,7 +12637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>11</v>
       </c>
@@ -12652,7 +12654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -12703,7 +12705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -12720,7 +12722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33">
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>16</v>
       </c>
@@ -12737,7 +12739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>17</v>
       </c>
@@ -12754,7 +12756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -12771,7 +12773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -12788,7 +12790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33">
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -12805,7 +12807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33">
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>22</v>
       </c>
@@ -12839,7 +12841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>23</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="99">
+    <row r="32" spans="1:5" ht="99" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>24</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>25</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>26</v>
       </c>
@@ -12907,7 +12909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>27</v>
       </c>
@@ -12924,7 +12926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>28</v>
       </c>
@@ -12941,7 +12943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>29</v>
       </c>
@@ -12958,7 +12960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -12975,7 +12977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>31</v>
       </c>
@@ -12992,7 +12994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>32</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>33</v>
       </c>
@@ -13026,7 +13028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>34</v>
       </c>
@@ -13043,7 +13045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>35</v>
       </c>
@@ -13060,7 +13062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>36</v>
       </c>
@@ -13077,7 +13079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>37</v>
       </c>
@@ -13094,7 +13096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="33">
+    <row r="46" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>38</v>
       </c>
@@ -13111,7 +13113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -13128,7 +13130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>40</v>
       </c>
@@ -13145,7 +13147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="33">
+    <row r="49" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -13162,7 +13164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>42</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5">
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>43</v>
       </c>
@@ -13196,7 +13198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>44</v>
       </c>
@@ -13213,7 +13215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33">
+    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>45</v>
       </c>
@@ -13230,7 +13232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5">
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>46</v>
       </c>
@@ -13247,7 +13249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>47</v>
       </c>
@@ -13264,7 +13266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="49.5">
+    <row r="56" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>48</v>
       </c>
@@ -13281,7 +13283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33">
+    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>49</v>
       </c>
@@ -13298,7 +13300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="33">
+    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>50</v>
       </c>
@@ -13321,14 +13323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="47" style="13" customWidth="1"/>
@@ -13339,7 +13341,7 @@
     <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -13347,7 +13349,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -13355,13 +13357,13 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6" t="s">
@@ -13371,7 +13373,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -13379,7 +13381,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -13387,7 +13389,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13395,7 +13397,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -13412,7 +13414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -13429,7 +13431,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -13446,7 +13448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -13463,7 +13465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -13480,7 +13482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -13514,7 +13516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -13531,7 +13533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -13548,7 +13550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -13565,7 +13567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -13582,7 +13584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -13599,7 +13601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -13616,7 +13618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -13650,7 +13652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -13667,7 +13669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -13684,7 +13686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -13701,7 +13703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -13718,7 +13720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -13735,7 +13737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -13752,7 +13754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -13786,7 +13788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -13803,7 +13805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5">
+    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -13820,7 +13822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -13837,7 +13839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -13854,7 +13856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -13871,7 +13873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -13888,7 +13890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -13905,7 +13907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -13922,7 +13924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -13939,7 +13941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -13956,7 +13958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -13973,7 +13975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -13990,7 +13992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -14007,7 +14009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33">
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -14024,7 +14026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -14041,7 +14043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -14058,7 +14060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -14075,7 +14077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33">
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -14092,7 +14094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -14109,7 +14111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -14126,7 +14128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33">
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -14143,7 +14145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -14160,7 +14162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -14177,7 +14179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -14194,7 +14196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5">
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -14211,7 +14213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -14228,7 +14230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -14251,14 +14253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
@@ -14267,7 +14269,7 @@
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.25" customHeight="1">
+    <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -14284,7 +14286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -14301,7 +14303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1">
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -14318,7 +14320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1">
+    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -14335,7 +14337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" customHeight="1">
+    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -14352,7 +14354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" customHeight="1">
+    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -14369,7 +14371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48.75" customHeight="1">
+    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -14386,7 +14388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -14403,7 +14405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1">
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -14420,7 +14422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="65.25" customHeight="1">
+    <row r="10" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75.75" customHeight="1">
+    <row r="11" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -14454,7 +14456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75.75" customHeight="1">
+    <row r="12" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -14471,7 +14473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="55.5" customHeight="1">
+    <row r="13" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -14488,7 +14490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="70.5" customHeight="1">
+    <row r="14" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72" customHeight="1">
+    <row r="15" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -14522,7 +14524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="66" customHeight="1">
+    <row r="16" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -14539,7 +14541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="63.75" customHeight="1">
+    <row r="17" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -14556,7 +14558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="49.5" customHeight="1">
+    <row r="18" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -14573,7 +14575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51.75" customHeight="1">
+    <row r="19" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -14590,7 +14592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="71.25" customHeight="1">
+    <row r="20" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -14607,7 +14609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60.75" customHeight="1">
+    <row r="21" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -14624,7 +14626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="59.25" customHeight="1">
+    <row r="22" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -14641,7 +14643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="122.25" customHeight="1">
+    <row r="23" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="48.75" customHeight="1">
+    <row r="24" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -14675,7 +14677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="149.25" customHeight="1">
+    <row r="25" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -14692,7 +14694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="48.75" customHeight="1">
+    <row r="26" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -14709,7 +14711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -14726,7 +14728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="65.25" customHeight="1">
+    <row r="28" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -14743,7 +14745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="76.5" customHeight="1">
+    <row r="29" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -14760,7 +14762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="76.5" customHeight="1">
+    <row r="30" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -14777,7 +14779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="64.5" customHeight="1">
+    <row r="31" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -14794,7 +14796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="87.75" customHeight="1">
+    <row r="32" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -14811,7 +14813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="60.75" customHeight="1">
+    <row r="33" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -14828,7 +14830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="87.75" customHeight="1">
+    <row r="34" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -14845,7 +14847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="51.75" customHeight="1">
+    <row r="35" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -14862,7 +14864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="49.5" customHeight="1">
+    <row r="36" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -14879,7 +14881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72" customHeight="1">
+    <row r="37" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -14896,7 +14898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="58.5" customHeight="1">
+    <row r="38" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -14913,7 +14915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44.25" customHeight="1">
+    <row r="39" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -14930,7 +14932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="50.25" customHeight="1">
+    <row r="40" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -14947,7 +14949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="66.75" customHeight="1">
+    <row r="41" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -14964,7 +14966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="54.75" customHeight="1">
+    <row r="42" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="50.25" customHeight="1">
+    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -14998,7 +15000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="59.25" customHeight="1">
+    <row r="44" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -15015,7 +15017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="58.5" customHeight="1">
+    <row r="45" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -15032,7 +15034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="59.25" customHeight="1">
+    <row r="46" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="81" customHeight="1">
+    <row r="47" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -15066,7 +15068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="106.5" customHeight="1">
+    <row r="48" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -15083,7 +15085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="66.75" customHeight="1">
+    <row r="49" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -15100,7 +15102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="66" customHeight="1">
+    <row r="50" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestLogic/BienBanReview_LA18PM.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestLogic/BienBanReview_LA18PM.xlsx
@@ -6705,7 +6705,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7627,7 +7627,7 @@
         <v>96</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>69</v>

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestLogic/BienBanReview_LA18PM.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestLogic/BienBanReview_LA18PM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1560" windowWidth="14805" windowHeight="8010" tabRatio="788" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="2085" yWindow="1560" windowWidth="14805" windowHeight="8010" tabRatio="788" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="16" r:id="rId1"/>
@@ -355,12 +355,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,10 +669,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,7 +703,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -895,7 +893,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="19"/>
       <c r="B2" s="30" t="s">
         <v>72</v>
@@ -903,13 +901,13 @@
       <c r="C2" s="30"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
         <v>73</v>
       </c>
@@ -923,7 +921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="26">
         <v>43018</v>
       </c>
@@ -937,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="26">
         <v>43018</v>
       </c>
@@ -951,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="26">
         <v>43018</v>
       </c>
@@ -965,7 +963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="26">
         <v>43018</v>
       </c>
@@ -979,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="26">
         <v>43018</v>
       </c>
@@ -993,7 +991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="26">
         <v>43018</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="26">
         <v>43018</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="26">
         <v>43018</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="26">
         <v>43018</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="26">
         <v>43018</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="26">
         <v>43018</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="26">
         <v>43018</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="26">
         <v>43018</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="26">
         <v>43018</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="26">
         <v>43019</v>
       </c>
@@ -1142,14 +1140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -1159,7 +1157,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1167,7 +1165,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1175,13 +1173,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -1191,7 +1189,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1199,7 +1197,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1207,7 +1205,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1215,7 +1213,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -1249,7 +1247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -1368,7 +1366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -1419,7 +1417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -1470,7 +1468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -1521,7 +1519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -1657,7 +1655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -1708,7 +1706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -1776,7 +1774,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -1793,7 +1791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -1895,7 +1893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -1980,7 +1978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -2031,7 +2029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -2071,14 +2069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -2088,7 +2086,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2096,7 +2094,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2104,13 +2102,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -2120,7 +2118,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2128,7 +2126,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2136,7 +2134,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2144,7 +2142,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -2161,7 +2159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -2280,7 +2278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -2297,7 +2295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -2399,7 +2397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -2416,7 +2414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -2433,7 +2431,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -2450,7 +2448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -2467,7 +2465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -2518,7 +2516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -2535,7 +2533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -2654,7 +2652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -2688,7 +2686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -2722,7 +2720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -2739,7 +2737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -2773,7 +2771,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -2790,7 +2788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -2926,7 +2924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -2960,7 +2958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -2977,7 +2975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -3000,14 +2998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
@@ -3016,26 +3014,26 @@
     <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -3044,28 +3042,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="77.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="42.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3099,7 +3097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="78.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="90" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -3133,7 +3131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -3150,7 +3148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="81.75" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -3184,7 +3182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="95.25" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -3201,7 +3199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -3218,7 +3216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="88.5" customHeight="1">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -3235,7 +3233,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="100.5" customHeight="1">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -3303,7 +3301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="62.25" customHeight="1">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -3337,7 +3335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -3354,7 +3352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -3371,7 +3369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -3388,7 +3386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="86.25" customHeight="1">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="64.5" customHeight="1">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="116.25" customHeight="1">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="130.5" customHeight="1">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -3507,7 +3505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="86.25" customHeight="1">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="84.75" customHeight="1">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="102.75" customHeight="1">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="72.75" customHeight="1">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -3592,7 +3590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="105.75" customHeight="1">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="110.25" customHeight="1">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="91.5" customHeight="1">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -3660,7 +3658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -3677,7 +3675,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="70.5" customHeight="1">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -3694,7 +3692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="63.75" customHeight="1">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45.75" customHeight="1">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="56.25" customHeight="1">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="87.75" customHeight="1">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="42" customHeight="1">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="62.25" customHeight="1">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -3796,7 +3794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="86.25" customHeight="1">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="48.75" customHeight="1">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="60" customHeight="1">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -3847,7 +3845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="98.25" customHeight="1">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -3864,7 +3862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="90.75" customHeight="1">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="71.25" customHeight="1">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -3921,14 +3919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -3938,7 +3936,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3946,7 +3944,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3954,13 +3952,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -3970,7 +3968,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3978,7 +3976,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3986,7 +3984,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3994,7 +3992,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="41.25" customHeight="1">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -4181,7 +4179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -4232,7 +4230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="41.25" customHeight="1">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="39.75" customHeight="1">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -4283,7 +4281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36.75" customHeight="1">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -4300,7 +4298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="36.75" customHeight="1">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="39.75" customHeight="1">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -4368,7 +4366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -4385,7 +4383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="42" customHeight="1">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -4402,7 +4400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="39.75" customHeight="1">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="54" customHeight="1">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -4453,7 +4451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -4470,7 +4468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.25" customHeight="1">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -4487,7 +4485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -4504,7 +4502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="41.25" customHeight="1">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -4521,7 +4519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="58.5" customHeight="1">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="51.75" customHeight="1">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -4555,7 +4553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="48.75" customHeight="1">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -4572,7 +4570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="33" customHeight="1">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -4606,7 +4604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="48.75" customHeight="1">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -4623,7 +4621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="48" customHeight="1">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="40.5" customHeight="1">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -4657,7 +4655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="34.5" customHeight="1">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -4674,7 +4672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="35.25" customHeight="1">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -4708,7 +4706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="34.5" customHeight="1">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -4742,7 +4740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="42" customHeight="1">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="65.25" customHeight="1">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -4810,7 +4808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -4827,7 +4825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="36.75" customHeight="1">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -4851,14 +4849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -4868,7 +4866,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4876,7 +4874,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4884,13 +4882,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -4900,7 +4898,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4908,7 +4906,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4916,7 +4914,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4924,7 +4922,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -4975,7 +4973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -4992,7 +4990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5009,7 +5007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -5026,7 +5024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -5043,7 +5041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -5060,7 +5058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -5077,7 +5075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -5128,7 +5126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -5179,7 +5177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -5247,7 +5245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -5264,7 +5262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -5298,7 +5296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -5315,7 +5313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -5332,7 +5330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -5366,7 +5364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -5434,7 +5432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -5451,7 +5449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -5468,7 +5466,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -5485,7 +5483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -5502,7 +5500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -5536,7 +5534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -5553,7 +5551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -5604,7 +5602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -5672,7 +5670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -5706,7 +5704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -5723,7 +5721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -5740,7 +5738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -5780,14 +5778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -5796,26 +5794,26 @@
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -5824,28 +5822,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="49.5">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -5862,7 +5860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -5879,7 +5877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -5896,7 +5894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="33">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -5913,7 +5911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -5930,7 +5928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="11">
         <v>5</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="33">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -5964,7 +5962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="33">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -5981,7 +5979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="49.5">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -5998,7 +5996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="49.5">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -6015,7 +6013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -6032,7 +6030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="11">
         <v>11</v>
       </c>
@@ -6049,7 +6047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -6066,7 +6064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -6083,7 +6081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -6100,7 +6098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="33">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="33">
       <c r="A24" s="11">
         <v>16</v>
       </c>
@@ -6134,7 +6132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="11">
         <v>17</v>
       </c>
@@ -6151,7 +6149,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="33">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -6202,7 +6200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="33">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -6219,7 +6217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="82.5">
       <c r="A30" s="11">
         <v>22</v>
       </c>
@@ -6236,7 +6234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="11">
         <v>23</v>
       </c>
@@ -6253,7 +6251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="115.5">
       <c r="A32" s="11">
         <v>24</v>
       </c>
@@ -6270,7 +6268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="11">
         <v>25</v>
       </c>
@@ -6287,7 +6285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="11">
         <v>26</v>
       </c>
@@ -6304,7 +6302,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="11">
         <v>27</v>
       </c>
@@ -6321,7 +6319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="11">
         <v>28</v>
       </c>
@@ -6338,7 +6336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="49.5">
       <c r="A37" s="11">
         <v>29</v>
       </c>
@@ -6355,7 +6353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="33">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -6372,7 +6370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="49.5">
       <c r="A39" s="11">
         <v>31</v>
       </c>
@@ -6389,7 +6387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="11">
         <v>32</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="11">
         <v>33</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="11">
         <v>34</v>
       </c>
@@ -6440,7 +6438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="11">
         <v>35</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="49.5">
       <c r="A44" s="11">
         <v>36</v>
       </c>
@@ -6474,7 +6472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="11">
         <v>37</v>
       </c>
@@ -6491,7 +6489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="11">
         <v>38</v>
       </c>
@@ -6508,7 +6506,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="33">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -6525,7 +6523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="11">
         <v>40</v>
       </c>
@@ -6542,7 +6540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -6559,7 +6557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="11">
         <v>42</v>
       </c>
@@ -6576,7 +6574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="11">
         <v>43</v>
       </c>
@@ -6593,7 +6591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="11">
         <v>44</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="33">
       <c r="A53" s="11">
         <v>45</v>
       </c>
@@ -6627,7 +6625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="11">
         <v>46</v>
       </c>
@@ -6644,7 +6642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="11">
         <v>47</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="33">
       <c r="A56" s="11">
         <v>48</v>
       </c>
@@ -6678,7 +6676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="33">
       <c r="A57" s="11">
         <v>49</v>
       </c>
@@ -6701,42 +6699,42 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -6745,28 +6743,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="77.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="42.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -6800,7 +6798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="78.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="90" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -6831,10 +6829,10 @@
         <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -6851,7 +6849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -6868,7 +6866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="81.75" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -6885,7 +6883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="95.25" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -6902,7 +6900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -6919,7 +6917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="88.5" customHeight="1">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -6936,7 +6934,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -6953,7 +6951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -6970,7 +6968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="100.5" customHeight="1">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -6987,7 +6985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -7004,7 +7002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="62.25" customHeight="1">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -7038,7 +7036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -7055,7 +7053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -7072,7 +7070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -7089,7 +7087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="86.25" customHeight="1">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -7106,7 +7104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="64.5" customHeight="1">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -7140,7 +7138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="116.25" customHeight="1">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -7174,7 +7172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="130.5" customHeight="1">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -7191,7 +7189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -7208,7 +7206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -7225,7 +7223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="86.25" customHeight="1">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -7242,7 +7240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="84.75" customHeight="1">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -7259,7 +7257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="102.75" customHeight="1">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -7276,7 +7274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="72.75" customHeight="1">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -7293,7 +7291,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="105.75" customHeight="1">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="110.25" customHeight="1">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -7327,7 +7325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="91.5" customHeight="1">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -7344,7 +7342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -7358,10 +7356,10 @@
         <v>64</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -7375,10 +7373,10 @@
         <v>64</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="70.5" customHeight="1">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="63.75" customHeight="1">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -7409,10 +7407,10 @@
         <v>64</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45.75" customHeight="1">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="56.25" customHeight="1">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -7446,7 +7444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="87.75" customHeight="1">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -7460,10 +7458,10 @@
         <v>64</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="42" customHeight="1">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="62.25" customHeight="1">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -7497,7 +7495,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="86.25" customHeight="1">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -7514,7 +7512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="48.75" customHeight="1">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -7531,7 +7529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="60" customHeight="1">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -7548,7 +7546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="98.25" customHeight="1">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="90.75" customHeight="1">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -7579,10 +7577,10 @@
         <v>64</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="71.25" customHeight="1">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -7599,7 +7597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -7616,7 +7614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="66">
       <c r="A58" s="7">
         <v>50</v>
       </c>
@@ -7627,13 +7625,13 @@
         <v>96</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" ht="16.5">
       <c r="A59" s="7">
         <v>51</v>
       </c>
@@ -7644,13 +7642,13 @@
         <v>96</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" ht="16.5">
       <c r="A60" s="7">
         <v>52</v>
       </c>
@@ -7661,13 +7659,13 @@
         <v>96</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" ht="16.5">
       <c r="A61" s="7">
         <v>53</v>
       </c>
@@ -7678,13 +7676,13 @@
         <v>96</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" ht="16.5">
       <c r="A62" s="7">
         <v>54</v>
       </c>
@@ -7695,10 +7693,10 @@
         <v>96</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7707,14 +7705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -7724,7 +7722,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7732,7 +7730,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7740,13 +7738,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -7756,7 +7754,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7764,7 +7762,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7772,7 +7770,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7780,7 +7778,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -7812,7 +7810,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -7827,7 +7825,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -7842,7 +7840,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -7857,7 +7855,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -7872,7 +7870,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -7887,7 +7885,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -7902,7 +7900,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -7917,7 +7915,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="41.25" customHeight="1">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -7932,7 +7930,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -7947,7 +7945,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -7962,7 +7960,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -7977,7 +7975,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -7992,7 +7990,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -8007,7 +8005,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="41.25" customHeight="1">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -8022,7 +8020,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="39.75" customHeight="1">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -8037,7 +8035,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36.75" customHeight="1">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -8052,7 +8050,7 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -8067,7 +8065,7 @@
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -8082,7 +8080,7 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="36.75" customHeight="1">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -8097,7 +8095,7 @@
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="39.75" customHeight="1">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -8112,7 +8110,7 @@
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -8127,7 +8125,7 @@
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="42" customHeight="1">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -8142,7 +8140,7 @@
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -8157,7 +8155,7 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="39.75" customHeight="1">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -8172,7 +8170,7 @@
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="54" customHeight="1">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -8187,7 +8185,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -8202,7 +8200,7 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.25" customHeight="1">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -8217,7 +8215,7 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -8232,7 +8230,7 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="41.25" customHeight="1">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -8247,7 +8245,7 @@
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="58.5" customHeight="1">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -8262,7 +8260,7 @@
       </c>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="51.75" customHeight="1">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -8277,7 +8275,7 @@
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="48.75" customHeight="1">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -8292,7 +8290,7 @@
       </c>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -8307,7 +8305,7 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="33" customHeight="1">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -8322,7 +8320,7 @@
       </c>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="48.75" customHeight="1">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -8337,7 +8335,7 @@
       </c>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="48" customHeight="1">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -8352,7 +8350,7 @@
       </c>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="40.5" customHeight="1">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -8367,7 +8365,7 @@
       </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="34.5" customHeight="1">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -8382,7 +8380,7 @@
       </c>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -8397,7 +8395,7 @@
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="35.25" customHeight="1">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -8412,7 +8410,7 @@
       </c>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="34.5" customHeight="1">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -8427,7 +8425,7 @@
       </c>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -8442,7 +8440,7 @@
       </c>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -8457,7 +8455,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="42" customHeight="1">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -8472,7 +8470,7 @@
       </c>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -8487,7 +8485,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="65.25" customHeight="1">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -8502,7 +8500,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -8517,7 +8515,7 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="36.75" customHeight="1">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -8532,7 +8530,7 @@
       </c>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="82.5">
       <c r="A58" s="7">
         <v>50</v>
       </c>
@@ -8547,7 +8545,7 @@
       </c>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="33">
       <c r="A59" s="7">
         <v>51</v>
       </c>
@@ -8562,7 +8560,7 @@
       </c>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="33">
       <c r="A60" s="7">
         <v>52</v>
       </c>
@@ -8577,7 +8575,7 @@
       </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="33">
       <c r="A61" s="7">
         <v>53</v>
       </c>
@@ -8592,7 +8590,7 @@
       </c>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="33">
       <c r="A62" s="7">
         <v>54</v>
       </c>
@@ -8614,14 +8612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -8631,7 +8629,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8639,7 +8637,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8647,13 +8645,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="33" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -8663,7 +8661,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8671,7 +8669,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8679,7 +8677,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8687,7 +8685,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -8704,7 +8702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -8721,7 +8719,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -8755,7 +8753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -8772,7 +8770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -8806,7 +8804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -8823,7 +8821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -8840,7 +8838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -8874,7 +8872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -8891,7 +8889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -8908,7 +8906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -8925,7 +8923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -8942,7 +8940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -8959,7 +8957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -9010,7 +9008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -9027,7 +9025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -9044,7 +9042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -9078,7 +9076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -9095,7 +9093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -9112,7 +9110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -9129,7 +9127,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -9146,7 +9144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -9163,7 +9161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -9180,7 +9178,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -9214,7 +9212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -9231,7 +9229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -9248,7 +9246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -9265,7 +9263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -9282,7 +9280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -9299,7 +9297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -9316,7 +9314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -9333,7 +9331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -9350,7 +9348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -9367,7 +9365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -9384,7 +9382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -9401,7 +9399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -9418,7 +9416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -9435,7 +9433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -9469,7 +9467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -9486,7 +9484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -9501,7 +9499,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -9518,7 +9516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -9541,14 +9539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -9558,7 +9556,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9566,7 +9564,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9574,13 +9572,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -9590,7 +9588,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9598,7 +9596,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9606,7 +9604,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -9614,7 +9612,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -9631,7 +9629,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -9648,7 +9646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -9665,7 +9663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -9682,7 +9680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -9699,7 +9697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -9716,7 +9714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -9750,7 +9748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -9767,7 +9765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="41.25" customHeight="1">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -9784,7 +9782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -9801,7 +9799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -9818,7 +9816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -9835,7 +9833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -9852,7 +9850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -9869,7 +9867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="41.25" customHeight="1">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="39.75" customHeight="1">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -9903,7 +9901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36.75" customHeight="1">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -9920,7 +9918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -9937,7 +9935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -9954,7 +9952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="36.75" customHeight="1">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -9971,7 +9969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="39.75" customHeight="1">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -9988,7 +9986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -10005,7 +10003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="42" customHeight="1">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -10022,7 +10020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -10039,7 +10037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="39.75" customHeight="1">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -10056,7 +10054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="54" customHeight="1">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -10073,7 +10071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -10090,7 +10088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.25" customHeight="1">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -10107,7 +10105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -10124,7 +10122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="41.25" customHeight="1">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -10141,7 +10139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="58.5" customHeight="1">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -10158,7 +10156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="51.75" customHeight="1">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -10175,7 +10173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="48.75" customHeight="1">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -10192,7 +10190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -10209,7 +10207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="33" customHeight="1">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -10226,7 +10224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="48.75" customHeight="1">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -10243,7 +10241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="48" customHeight="1">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -10260,7 +10258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="40.5" customHeight="1">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -10277,7 +10275,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="34.5" customHeight="1">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -10294,7 +10292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -10311,7 +10309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="35.25" customHeight="1">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -10328,7 +10326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="34.5" customHeight="1">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -10345,7 +10343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -10379,7 +10377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="42" customHeight="1">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -10396,7 +10394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -10413,7 +10411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="65.25" customHeight="1">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -10430,7 +10428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -10447,7 +10445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="36.75" customHeight="1">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -10471,14 +10469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -10488,7 +10486,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10496,7 +10494,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10504,13 +10502,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -10520,7 +10518,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -10528,7 +10526,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -10536,7 +10534,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -10544,7 +10542,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -10561,7 +10559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -10578,7 +10576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -10595,7 +10593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -10612,7 +10610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -10629,7 +10627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -10646,7 +10644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -10663,7 +10661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -10680,7 +10678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -10697,7 +10695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -10714,7 +10712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -10731,7 +10729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -10748,7 +10746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -10765,7 +10763,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -10782,7 +10780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -10799,7 +10797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -10833,7 +10831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -10850,7 +10848,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -10867,7 +10865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -10884,7 +10882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -10901,7 +10899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -10918,7 +10916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -10935,7 +10933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -10952,7 +10950,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -10969,7 +10967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -10986,7 +10984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -11003,7 +11001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -11020,7 +11018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -11071,7 +11069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -11088,7 +11086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -11105,7 +11103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -11122,7 +11120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -11139,7 +11137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -11156,7 +11154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -11173,7 +11171,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -11190,7 +11188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -11207,7 +11205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -11224,7 +11222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -11241,7 +11239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -11275,7 +11273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -11292,7 +11290,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -11309,7 +11307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -11343,7 +11341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -11360,7 +11358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -11377,7 +11375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -11400,14 +11398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -11417,7 +11415,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -11435,7 +11433,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11453,7 +11451,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -11471,7 +11469,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -11489,7 +11487,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -11507,7 +11505,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -11525,7 +11523,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="33">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -11543,7 +11541,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -11560,7 +11558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -11577,7 +11575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -11594,7 +11592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -11611,7 +11609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -11628,7 +11626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -11645,7 +11643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -11662,7 +11660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -11679,7 +11677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -11696,7 +11694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -11713,7 +11711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -11730,7 +11728,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -11747,7 +11745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -11764,7 +11762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -11781,7 +11779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -11798,7 +11796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="66">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -11815,7 +11813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -11832,7 +11830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="82.5">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -11849,7 +11847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -11866,7 +11864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -11883,7 +11881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="33">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -11900,7 +11898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="33">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -11917,7 +11915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="33">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -11934,7 +11932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -11951,7 +11949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="33">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -11968,7 +11966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="33">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -11985,7 +11983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="33">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -12002,7 +12000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -12019,7 +12017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -12036,7 +12034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -12053,7 +12051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -12070,7 +12068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -12087,7 +12085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16.5">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -12104,7 +12102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -12121,7 +12119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -12138,7 +12136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -12155,7 +12153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -12172,7 +12170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="33">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -12189,7 +12187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -12206,7 +12204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="49.5">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -12223,7 +12221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="49.5">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -12240,7 +12238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -12257,7 +12255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -12274,7 +12272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -12289,7 +12287,7 @@
       </c>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -12304,7 +12302,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -12319,7 +12317,7 @@
       </c>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -12334,7 +12332,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -12349,7 +12347,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -12364,7 +12362,7 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -12385,14 +12383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
@@ -12401,26 +12399,26 @@
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
@@ -12429,28 +12427,28 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="33">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -12467,7 +12465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -12484,7 +12482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -12501,7 +12499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -12518,7 +12516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -12535,7 +12533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="11">
         <v>5</v>
       </c>
@@ -12552,7 +12550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="33">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -12569,7 +12567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -12586,7 +12584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="33">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -12603,7 +12601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -12620,7 +12618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -12637,7 +12635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="11">
         <v>11</v>
       </c>
@@ -12654,7 +12652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -12671,7 +12669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -12688,7 +12686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -12705,7 +12703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="33">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -12722,7 +12720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="33">
       <c r="A24" s="11">
         <v>16</v>
       </c>
@@ -12739,7 +12737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="11">
         <v>17</v>
       </c>
@@ -12756,7 +12754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -12773,7 +12771,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -12790,7 +12788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="33">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -12807,7 +12805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="33">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -12824,7 +12822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="11">
         <v>22</v>
       </c>
@@ -12841,7 +12839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="11">
         <v>23</v>
       </c>
@@ -12858,7 +12856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="99">
       <c r="A32" s="11">
         <v>24</v>
       </c>
@@ -12875,7 +12873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="11">
         <v>25</v>
       </c>
@@ -12892,7 +12890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="11">
         <v>26</v>
       </c>
@@ -12909,7 +12907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="11">
         <v>27</v>
       </c>
@@ -12926,7 +12924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="11">
         <v>28</v>
       </c>
@@ -12943,7 +12941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="11">
         <v>29</v>
       </c>
@@ -12960,7 +12958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -12977,7 +12975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="11">
         <v>31</v>
       </c>
@@ -12994,7 +12992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="11">
         <v>32</v>
       </c>
@@ -13011,7 +13009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="11">
         <v>33</v>
       </c>
@@ -13028,7 +13026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="11">
         <v>34</v>
       </c>
@@ -13045,7 +13043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="11">
         <v>35</v>
       </c>
@@ -13062,7 +13060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="11">
         <v>36</v>
       </c>
@@ -13079,7 +13077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="11">
         <v>37</v>
       </c>
@@ -13096,7 +13094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="33">
       <c r="A46" s="11">
         <v>38</v>
       </c>
@@ -13113,7 +13111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -13130,7 +13128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="11">
         <v>40</v>
       </c>
@@ -13147,7 +13145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="33">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -13164,7 +13162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="11">
         <v>42</v>
       </c>
@@ -13181,7 +13179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16.5">
       <c r="A51" s="11">
         <v>43</v>
       </c>
@@ -13198,7 +13196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="11">
         <v>44</v>
       </c>
@@ -13215,7 +13213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="33">
       <c r="A53" s="11">
         <v>45</v>
       </c>
@@ -13232,7 +13230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="16.5">
       <c r="A54" s="11">
         <v>46</v>
       </c>
@@ -13249,7 +13247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="11">
         <v>47</v>
       </c>
@@ -13266,7 +13264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="49.5">
       <c r="A56" s="11">
         <v>48</v>
       </c>
@@ -13283,7 +13281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="33">
       <c r="A57" s="11">
         <v>49</v>
       </c>
@@ -13300,7 +13298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="33">
       <c r="A58" s="11">
         <v>50</v>
       </c>
@@ -13323,14 +13321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="47" style="13" customWidth="1"/>
@@ -13341,7 +13339,7 @@
     <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -13349,7 +13347,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -13357,13 +13355,13 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6" t="s">
@@ -13373,7 +13371,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -13381,7 +13379,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -13389,7 +13387,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13397,7 +13395,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -13414,7 +13412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -13431,7 +13429,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -13448,7 +13446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="39.75" customHeight="1">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -13465,7 +13463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -13482,7 +13480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -13499,7 +13497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -13516,7 +13514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -13533,7 +13531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -13550,7 +13548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="33">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -13567,7 +13565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="33">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -13584,7 +13582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="33">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -13601,7 +13599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="33">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -13618,7 +13616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -13635,7 +13633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="33">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -13652,7 +13650,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -13669,7 +13667,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -13686,7 +13684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -13703,7 +13701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -13720,7 +13718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -13737,7 +13735,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -13754,7 +13752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -13771,7 +13769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="66">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -13788,7 +13786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -13805,7 +13803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="82.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -13822,7 +13820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -13839,7 +13837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -13856,7 +13854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -13873,7 +13871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -13890,7 +13888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -13907,7 +13905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -13924,7 +13922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -13941,7 +13939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="33">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -13958,7 +13956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="33">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -13975,7 +13973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -13992,7 +13990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -14009,7 +14007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="33">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -14026,7 +14024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -14043,7 +14041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -14060,7 +14058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -14077,7 +14075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="33">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -14094,7 +14092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -14128,7 +14126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="33">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -14145,7 +14143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="33">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -14162,7 +14160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -14179,7 +14177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="49.5">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -14196,7 +14194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="49.5">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -14213,7 +14211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -14230,7 +14228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -14253,14 +14251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
@@ -14269,7 +14267,7 @@
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="50.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -14286,7 +14284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -14303,7 +14301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="32.25" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -14320,7 +14318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="37.5" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -14337,7 +14335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -14354,7 +14352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -14371,7 +14369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="48.75" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -14388,7 +14386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -14405,7 +14403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="50.25" customHeight="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -14422,7 +14420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="65.25" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -14439,7 +14437,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="75.75" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -14456,7 +14454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="75.75" customHeight="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -14473,7 +14471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="55.5" customHeight="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -14490,7 +14488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="70.5" customHeight="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -14507,7 +14505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="72" customHeight="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -14524,7 +14522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="66" customHeight="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -14541,7 +14539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="63.75" customHeight="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -14558,7 +14556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="49.5" customHeight="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -14575,7 +14573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="51.75" customHeight="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -14592,7 +14590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="71.25" customHeight="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -14609,7 +14607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="60.75" customHeight="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -14626,7 +14624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="59.25" customHeight="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -14643,7 +14641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="122.25" customHeight="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -14660,7 +14658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="48.75" customHeight="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -14677,7 +14675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="149.25" customHeight="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -14694,7 +14692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="48.75" customHeight="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -14711,7 +14709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -14728,7 +14726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="65.25" customHeight="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -14745,7 +14743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="76.5" customHeight="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -14762,7 +14760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="76.5" customHeight="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -14779,7 +14777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="64.5" customHeight="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -14796,7 +14794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="87.75" customHeight="1">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -14813,7 +14811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="60.75" customHeight="1">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -14830,7 +14828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="87.75" customHeight="1">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -14847,7 +14845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="51.75" customHeight="1">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -14864,7 +14862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="49.5" customHeight="1">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -14881,7 +14879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="72" customHeight="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -14898,7 +14896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="58.5" customHeight="1">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -14915,7 +14913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="44.25" customHeight="1">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -14932,7 +14930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="50.25" customHeight="1">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -14949,7 +14947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="66.75" customHeight="1">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -14966,7 +14964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="54.75" customHeight="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -14983,7 +14981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="50.25" customHeight="1">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -15000,7 +14998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="59.25" customHeight="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -15017,7 +15015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="58.5" customHeight="1">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -15034,7 +15032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="59.25" customHeight="1">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -15051,7 +15049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="81" customHeight="1">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -15068,7 +15066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="106.5" customHeight="1">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -15085,7 +15083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="66.75" customHeight="1">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -15102,7 +15100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="66" customHeight="1">
       <c r="A50" s="11">
         <v>49</v>
       </c>
